--- a/medicine/Enfance/La_Vallée_des_Brontosaures/La_Vallée_des_Brontosaures.xlsx
+++ b/medicine/Enfance/La_Vallée_des_Brontosaures/La_Vallée_des_Brontosaures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Vall%C3%A9e_des_Brontosaures</t>
+          <t>La_Vallée_des_Brontosaures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Vallée des brontosaures est le 10e roman de la série Bob Morane écrit par Henri Vernes et publié en 1955 par les éditions Gérard et Cie dans la collection Marabout junior (n°54). 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Vall%C3%A9e_des_Brontosaures</t>
+          <t>La_Vallée_des_Brontosaures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aventure se passe en Afrique centrale. Bob Morane est le passager d'un steamer qui doit se rendre à Walobo où habite son ami Allan Wood qui a promis de le guider dans son safari-photo. Pendant le voyage, il sauve une jeune passagère d'une agression. Celle-ci, Leni Hetzel, est la fille d'un paléontologue qui a découvert en Afrique une vallée où se trouveraient des os de dinosaures américains. Leni Hetzel  veut réhabiliter la mémoire de son père en tentant de retrouver cette vallée et prouver ainsi que des dinosaures américains ont pu vivre dans l'Ancien Monde. La vallée en question, perdue dans la savane africaine, est censée contenir des brontosaures et des tyrannosaures, dinosaures typiquement américains.
 À Walobo, Leni Hetzel demande à Allan Wood de lui servir de guide mais celui-ci refuse. Le danger des hommes-léopards est en ce moment trop grand. Dépitée, elle se rabat sur un marchand de l'endroit, Peter Bald, qui accepte de l'emmener. Celui-ci, guidé par la cupidité, a entendu parler de diamants qui seraient cachés dans la dite vallée des brontosaures. 
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Vall%C3%A9e_des_Brontosaures</t>
+          <t>La_Vallée_des_Brontosaures</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Bob Morane, aventurier.
 Allan Wood : ami de Bob Morane. Amoureux du continent africain, il habite Walobo dans le centre Afrique où il guide les touristes dans leurs safaris.
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Vall%C3%A9e_des_Brontosaures</t>
+          <t>La_Vallée_des_Brontosaures</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,7 +598,9 @@
           <t>Adaptation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman a été adapté en bande dessinée en 1998 par Felicísimo Coria.[réf. nécessaire]
 </t>
